--- a/nf.xlsx
+++ b/nf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moniquemizzi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE252996-4D18-204D-B730-A480A1FB695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0461F-6C48-E643-A2C8-915DCC20AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{D0C03BE5-CABE-6D4B-8E23-681DF5F6853B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="2" xr2:uid="{D0C03BE5-CABE-6D4B-8E23-681DF5F6853B}"/>
   </bookViews>
   <sheets>
     <sheet name="1NF" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,58 +301,55 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,13 +1142,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1166,7 +1163,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1256,16 +1253,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1329,21 +1326,21 @@
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1352,7 +1349,7 @@
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1361,7 +1358,7 @@
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1370,7 +1367,7 @@
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1379,7 +1376,7 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1388,7 +1385,7 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -1397,7 +1394,7 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1406,7 +1403,7 @@
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1415,7 +1412,7 @@
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1424,7 +1421,7 @@
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -1433,7 +1430,7 @@
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1442,7 +1439,7 @@
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -1451,7 +1448,7 @@
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -1460,7 +1457,7 @@
       <c r="B30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -1469,7 +1466,7 @@
       <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1478,7 +1475,7 @@
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1487,7 +1484,7 @@
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1505,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165E62BE-3EA5-8246-A67C-C336B3DA3EF0}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,13 +1515,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1539,7 +1536,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1601,7 +1598,7 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="5">
         <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1618,7 +1615,7 @@
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="5">
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1629,14 +1626,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1687,72 +1684,72 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="15"/>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
